--- a/server/test/CSVParserData/CSVFiles/molecules_movedColumns.xlsx
+++ b/server/test/CSVParserData/CSVFiles/molecules_movedColumns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sync\Documents\Fac\Semestre_5\Projet\glowing-octo-guacamole\server\test\CSVParserData\CSVFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35C6889-80AE-4E52-A3A6-98CD1B8F2D31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A17707-1E26-4FB2-8A53-92566A00C503}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="242">
   <si>
     <t>DCI</t>
   </si>
@@ -791,9 +791,6 @@
     <t>NIVEAU_EXPERT</t>
   </si>
   <si>
-    <t>SYSTEME_2</t>
-  </si>
-  <si>
     <t>SYSTEME_1</t>
   </si>
   <si>
@@ -834,6 +831,12 @@
   </si>
   <si>
     <t>CEPHALOSPORINE DE 3EME      GENERATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>SYSTEME_4</t>
   </si>
 </sst>
 </file>
@@ -1371,10 +1374,10 @@
   <dimension ref="A4:U174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="I83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q4" sqref="Q4:Q1048576"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1400,55 +1403,55 @@
         <v>225</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="K4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>232</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>232</v>
       </c>
       <c r="R4" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="T4" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="S4" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="T4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>234</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
@@ -1465,19 +1468,19 @@
         <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="J5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -1493,14 +1496,14 @@
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>1</v>
+      <c r="E6" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>8</v>
+      <c r="J6" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="U6" s="2">
         <v>1</v>
@@ -1519,14 +1522,14 @@
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>1</v>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>8</v>
+      <c r="J7" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
@@ -1541,22 +1544,22 @@
         <v>5</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
@@ -1574,13 +1577,13 @@
         <v>5</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>11</v>
+      <c r="J9" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
@@ -1598,13 +1601,13 @@
         <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>11</v>
+      <c r="J10" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -1617,13 +1620,13 @@
         <v>5</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>11</v>
+      <c r="J11" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -1636,13 +1639,13 @@
         <v>5</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>42</v>
+      <c r="J12" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
@@ -1655,16 +1658,16 @@
         <v>5</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="H13" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>13</v>
@@ -1680,16 +1683,16 @@
         <v>5</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="H14" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -1702,13 +1705,13 @@
         <v>5</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>26</v>
+      <c r="J15" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -1721,16 +1724,16 @@
         <v>5</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>28</v>
       </c>
@@ -1740,16 +1743,16 @@
         <v>5</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J17" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>29</v>
       </c>
@@ -1759,16 +1762,16 @@
         <v>5</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J18" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>30</v>
       </c>
@@ -1778,16 +1781,16 @@
         <v>5</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J19" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>31</v>
       </c>
@@ -1797,16 +1800,16 @@
         <v>5</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J20" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>32</v>
       </c>
@@ -1816,16 +1819,16 @@
         <v>5</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J21" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>37</v>
       </c>
@@ -1835,22 +1838,22 @@
         <v>5</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="J22" s="2" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N22" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>38</v>
       </c>
@@ -1860,22 +1863,22 @@
         <v>5</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="J23" s="2" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N23" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>39</v>
       </c>
@@ -1885,19 +1888,19 @@
         <v>5</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="J24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N24" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>40</v>
       </c>
@@ -1907,19 +1910,19 @@
         <v>5</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="J25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>41</v>
       </c>
@@ -1929,16 +1932,13 @@
         <v>5</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="J26" s="2" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>43</v>
@@ -1949,8 +1949,11 @@
       <c r="M26" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N26" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>48</v>
       </c>
@@ -1959,18 +1962,18 @@
       <c r="D27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>13</v>
+      <c r="E27" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="H27" s="15"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J27" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>46</v>
       </c>
@@ -1979,18 +1982,18 @@
       <c r="D28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>13</v>
+      <c r="E28" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="H28" s="15"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J28" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>49</v>
       </c>
@@ -1999,18 +2002,18 @@
       <c r="D29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>13</v>
+      <c r="E29" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="H29" s="15"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J29" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>50</v>
       </c>
@@ -2019,18 +2022,18 @@
       <c r="D30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>13</v>
+      <c r="E30" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="H30" s="15"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J30" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>47</v>
       </c>
@@ -2039,18 +2042,18 @@
       <c r="D31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>13</v>
+      <c r="E31" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="H31" s="15"/>
-    </row>
-    <row r="32" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J31" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>52</v>
       </c>
@@ -2060,19 +2063,19 @@
         <v>5</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="H32" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J32" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>53</v>
       </c>
@@ -2082,19 +2085,19 @@
         <v>5</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="H33" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="J33" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>54</v>
       </c>
@@ -2104,19 +2107,19 @@
         <v>5</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="H34" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J34" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>55</v>
       </c>
@@ -2126,19 +2129,19 @@
         <v>5</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="H35" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J35" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>59</v>
       </c>
@@ -2148,16 +2151,16 @@
         <v>5</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J36" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>61</v>
       </c>
@@ -2167,16 +2170,16 @@
         <v>5</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J37" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>63</v>
       </c>
@@ -2186,16 +2189,16 @@
         <v>5</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J38" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
         <v>68</v>
       </c>
@@ -2205,16 +2208,16 @@
         <v>5</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J39" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>69</v>
       </c>
@@ -2224,16 +2227,16 @@
         <v>5</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J40" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>64</v>
       </c>
@@ -2243,16 +2246,16 @@
         <v>5</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J41" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>67</v>
       </c>
@@ -2262,16 +2265,16 @@
         <v>5</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J42" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>66</v>
       </c>
@@ -2281,16 +2284,16 @@
         <v>5</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J43" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>65</v>
       </c>
@@ -2300,16 +2303,16 @@
         <v>5</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J44" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>71</v>
       </c>
@@ -2319,16 +2322,16 @@
         <v>5</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J45" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>73</v>
       </c>
@@ -2338,16 +2341,16 @@
         <v>5</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J46" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>74</v>
       </c>
@@ -2357,16 +2360,16 @@
         <v>5</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J47" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>72</v>
       </c>
@@ -2376,16 +2379,16 @@
         <v>5</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J48" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>80</v>
       </c>
@@ -2393,19 +2396,19 @@
         <v>5</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J49" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>81</v>
       </c>
@@ -2415,19 +2418,19 @@
         <v>5</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J50" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>87</v>
       </c>
@@ -2437,19 +2440,19 @@
         <v>5</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J51" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>88</v>
       </c>
@@ -2459,19 +2462,19 @@
         <v>5</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J52" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>89</v>
       </c>
@@ -2481,19 +2484,19 @@
         <v>5</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J53" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>85</v>
       </c>
@@ -2503,19 +2506,19 @@
         <v>5</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J54" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>86</v>
       </c>
@@ -2525,19 +2528,19 @@
         <v>5</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J55" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>90</v>
       </c>
@@ -2547,19 +2550,19 @@
         <v>5</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J56" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>91</v>
       </c>
@@ -2569,19 +2572,19 @@
         <v>5</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J57" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>93</v>
       </c>
@@ -2591,19 +2594,19 @@
         <v>5</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J58" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>96</v>
       </c>
@@ -2612,17 +2615,17 @@
       <c r="D59" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>113</v>
+      <c r="E59" s="15" t="s">
+        <v>95</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G59" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J59" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>97</v>
       </c>
@@ -2631,17 +2634,17 @@
       <c r="D60" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>113</v>
+      <c r="E60" s="15" t="s">
+        <v>95</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G60" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J60" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>98</v>
       </c>
@@ -2650,17 +2653,17 @@
       <c r="D61" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>113</v>
+      <c r="E61" s="15" t="s">
+        <v>95</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G61" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J61" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>99</v>
       </c>
@@ -2669,17 +2672,17 @@
       <c r="D62" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>113</v>
+      <c r="E62" s="15" t="s">
+        <v>95</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G62" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J62" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>101</v>
       </c>
@@ -2688,17 +2691,17 @@
       <c r="D63" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>113</v>
+      <c r="E63" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G63" s="15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J63" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>103</v>
       </c>
@@ -2708,16 +2711,16 @@
         <v>5</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G64" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J64" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>104</v>
       </c>
@@ -2727,16 +2730,16 @@
         <v>5</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G65" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J65" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>105</v>
       </c>
@@ -2746,16 +2749,16 @@
         <v>5</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J66" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>107</v>
       </c>
@@ -2764,17 +2767,17 @@
       <c r="D67" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>113</v>
+      <c r="E67" s="19" t="s">
+        <v>106</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G67" s="19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J67" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="20" t="s">
         <v>110</v>
       </c>
@@ -2783,20 +2786,20 @@
       <c r="D68" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>113</v>
+      <c r="E68" s="15" t="s">
+        <v>108</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G68" s="15" t="s">
-        <v>108</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J68" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>111</v>
       </c>
@@ -2805,20 +2808,20 @@
       <c r="D69" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>113</v>
+      <c r="E69" s="15" t="s">
+        <v>108</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G69" s="15" t="s">
-        <v>108</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J69" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="20" t="s">
         <v>114</v>
       </c>
@@ -2827,20 +2830,20 @@
       <c r="D70" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>113</v>
+      <c r="E70" s="15" t="s">
+        <v>108</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G70" s="15" t="s">
-        <v>108</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J70" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>116</v>
       </c>
@@ -2849,20 +2852,20 @@
       <c r="D71" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>113</v>
+      <c r="E71" s="15" t="s">
+        <v>108</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>108</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J71" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>115</v>
       </c>
@@ -2871,20 +2874,20 @@
       <c r="D72" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>113</v>
+      <c r="E72" s="15" t="s">
+        <v>108</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G72" s="15" t="s">
-        <v>108</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" ht="28.8" x14ac:dyDescent="0.2">
+      <c r="J72" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="28.8" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
         <v>117</v>
       </c>
@@ -2893,20 +2896,20 @@
       <c r="D73" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>113</v>
+      <c r="E73" s="15" t="s">
+        <v>108</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G73" s="15" t="s">
-        <v>108</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J73" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>120</v>
       </c>
@@ -2915,20 +2918,20 @@
       <c r="D74" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>113</v>
+      <c r="E74" s="15" t="s">
+        <v>108</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G74" s="15" t="s">
-        <v>108</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J74" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>121</v>
       </c>
@@ -2937,20 +2940,20 @@
       <c r="D75" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>113</v>
+      <c r="E75" s="15" t="s">
+        <v>108</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G75" s="15" t="s">
-        <v>108</v>
-      </c>
       <c r="H75" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>118</v>
       </c>
@@ -2959,20 +2962,20 @@
       <c r="D76" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>113</v>
+      <c r="E76" s="15" t="s">
+        <v>108</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G76" s="15" t="s">
-        <v>108</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J76" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>122</v>
       </c>
@@ -2981,20 +2984,20 @@
       <c r="D77" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>113</v>
+      <c r="E77" s="15" t="s">
+        <v>108</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G77" s="15" t="s">
-        <v>108</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J77" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>123</v>
       </c>
@@ -3003,20 +3006,20 @@
       <c r="D78" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>113</v>
+      <c r="E78" s="15" t="s">
+        <v>108</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G78" s="15" t="s">
-        <v>108</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J78" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>119</v>
       </c>
@@ -3025,20 +3028,20 @@
       <c r="D79" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>113</v>
+      <c r="E79" s="15" t="s">
+        <v>108</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G79" s="15" t="s">
-        <v>108</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" ht="28.8" x14ac:dyDescent="0.2">
+      <c r="J79" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="28.8" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="s">
         <v>126</v>
       </c>
@@ -3047,17 +3050,17 @@
       <c r="D80" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>113</v>
+      <c r="E80" s="15" t="s">
+        <v>108</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G80" s="15" t="s">
-        <v>108</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>128</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -3069,17 +3072,17 @@
       <c r="D81" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>113</v>
+      <c r="E81" s="15" t="s">
+        <v>108</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G81" s="15" t="s">
-        <v>108</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>128</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -3091,17 +3094,17 @@
       <c r="D82" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>113</v>
+      <c r="E82" s="15" t="s">
+        <v>108</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="G82" s="15" t="s">
-        <v>108</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>128</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -3114,25 +3117,25 @@
         <v>5</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G83" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="J83" s="2" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>136</v>
       </c>
+      <c r="N83" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="P83" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="Q83" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -3145,22 +3148,22 @@
         <v>5</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G84" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="J84" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N84" s="2" t="s">
         <v>137</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="P84" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="Q84" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -3173,22 +3176,22 @@
         <v>5</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G85" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="J85" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N85" s="2" t="s">
         <v>137</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="P85" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="Q85" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -3201,22 +3204,22 @@
         <v>5</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G86" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="J86" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N86" s="2" t="s">
         <v>137</v>
+      </c>
+      <c r="O86" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="P86" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="Q86" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -3229,22 +3232,22 @@
         <v>5</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G87" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="J87" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N87" s="2" t="s">
         <v>137</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="P87" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="Q87" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -3257,22 +3260,22 @@
         <v>5</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G88" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="J88" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N88" s="2" t="s">
         <v>137</v>
+      </c>
+      <c r="O88" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="P88" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="Q88" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
@@ -3285,18 +3288,18 @@
         <v>5</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G89" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="J89" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N89" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="Q89" s="2" t="s">
+      <c r="O89" s="2" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3310,18 +3313,18 @@
         <v>5</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G90" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="J90" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N90" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="Q90" s="2" t="s">
+      <c r="O90" s="2" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3335,18 +3338,18 @@
         <v>5</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G91" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="J91" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N91" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="Q91" s="2" t="s">
+      <c r="O91" s="2" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3360,18 +3363,18 @@
         <v>5</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G92" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="J92" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N92" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="Q92" s="2" t="s">
+      <c r="O92" s="2" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3385,18 +3388,18 @@
         <v>5</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G93" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="J93" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N93" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="Q93" s="2" t="s">
+      <c r="O93" s="2" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3410,15 +3413,15 @@
         <v>5</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G94" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="J94" s="26" t="s">
+      <c r="J94" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N94" s="26" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3432,18 +3435,18 @@
         <v>5</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G95" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="J95" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N95" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N95" s="2" t="s">
+      <c r="Q95" s="2" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3457,18 +3460,18 @@
         <v>5</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G96" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="J96" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N96" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N96" s="2" t="s">
+      <c r="Q96" s="2" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3482,15 +3485,15 @@
         <v>5</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G97" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="J97" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N97" s="2" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3504,15 +3507,15 @@
         <v>5</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G98" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="J98" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N98" s="2" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3526,15 +3529,15 @@
         <v>5</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G99" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="J99" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N99" s="2" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3548,15 +3551,15 @@
         <v>5</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G100" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="J100" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N100" s="2" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3570,15 +3573,15 @@
         <v>5</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G101" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="J101" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N101" s="2" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3592,18 +3595,18 @@
         <v>5</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G102" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="J102" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N102" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="Q102" s="2" t="s">
+      <c r="O102" s="2" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3617,18 +3620,18 @@
         <v>5</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G103" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="J103" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N103" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="Q103" s="2" t="s">
+      <c r="O103" s="2" t="s">
         <v>147</v>
       </c>
       <c r="R103" s="23"/>
@@ -3643,18 +3646,18 @@
         <v>5</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G104" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="J104" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N104" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="Q104" s="2" t="s">
+      <c r="O104" s="2" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3668,13 +3671,13 @@
         <v>5</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G105" s="2" t="s">
-        <v>164</v>
+      <c r="J105" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.3">
@@ -3687,13 +3690,13 @@
         <v>5</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G106" s="2" t="s">
-        <v>164</v>
+      <c r="J106" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.3">
@@ -3705,14 +3708,14 @@
       <c r="D107" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>113</v>
+      <c r="E107" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G107" s="1" t="s">
-        <v>165</v>
+      <c r="J107" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="K107" s="2" t="s">
         <v>170</v>
@@ -3727,14 +3730,14 @@
       <c r="D108" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E108" s="2" t="s">
-        <v>113</v>
+      <c r="E108" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G108" s="1" t="s">
-        <v>165</v>
+      <c r="J108" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.3">
@@ -3746,14 +3749,14 @@
       <c r="D109" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>113</v>
+      <c r="E109" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G109" s="1" t="s">
-        <v>165</v>
+      <c r="J109" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="110" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -3765,14 +3768,14 @@
       <c r="D110" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>113</v>
+      <c r="E110" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G110" s="1" t="s">
-        <v>165</v>
+      <c r="J110" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -3785,22 +3788,22 @@
         <v>5</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>113</v>
+        <v>179</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G111" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="J111" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N111" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="N111" s="2" t="s">
+      <c r="O111" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q111" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="Q111" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="112" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -3813,22 +3816,22 @@
         <v>5</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>113</v>
+        <v>179</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G112" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="J112" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N112" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="N112" s="2" t="s">
+      <c r="O112" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q112" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="Q112" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="113" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -3841,22 +3844,22 @@
         <v>5</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>113</v>
+        <v>179</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G113" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="J113" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N113" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="N113" s="2" t="s">
+      <c r="O113" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q113" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="Q113" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="114" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -3869,22 +3872,22 @@
         <v>5</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>113</v>
+        <v>179</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G114" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="J114" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N114" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="N114" s="2" t="s">
+      <c r="O114" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q114" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="Q114" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="115" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -3897,22 +3900,22 @@
         <v>5</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>113</v>
+        <v>179</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G115" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="J115" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N115" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="N115" s="2" t="s">
+      <c r="O115" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q115" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="Q115" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="116" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -3925,22 +3928,22 @@
         <v>5</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>113</v>
+        <v>179</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G116" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="J116" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N116" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="N116" s="2" t="s">
+      <c r="O116" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q116" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="Q116" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="117" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -3953,22 +3956,22 @@
         <v>5</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>113</v>
+        <v>179</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G117" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="J117" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N117" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="N117" s="2" t="s">
+      <c r="O117" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q117" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="Q117" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="118" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -3981,22 +3984,22 @@
         <v>5</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>113</v>
+        <v>179</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G118" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="J118" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N118" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="N118" s="2" t="s">
+      <c r="O118" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q118" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="Q118" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.3">
@@ -4009,13 +4012,13 @@
         <v>5</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G119" s="2" t="s">
-        <v>184</v>
+      <c r="J119" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,13 +4031,13 @@
         <v>5</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G120" s="2" t="s">
-        <v>184</v>
+      <c r="J120" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,14 +4049,14 @@
       <c r="D121" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E121" s="2" t="s">
-        <v>113</v>
+      <c r="E121" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G121" s="1" t="s">
-        <v>187</v>
+      <c r="J121" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="122" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -4065,23 +4068,23 @@
       <c r="D122" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>113</v>
+      <c r="E122" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G122" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="J122" s="2" t="s">
-        <v>188</v>
+        <v>113</v>
       </c>
       <c r="N122" s="2" t="s">
         <v>188</v>
       </c>
+      <c r="O122" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="Q122" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.2">
@@ -4093,14 +4096,14 @@
       <c r="D123" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>113</v>
+      <c r="E123" s="25" t="s">
+        <v>193</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G123" s="25" t="s">
-        <v>193</v>
+      <c r="J123" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.2">
@@ -4112,11 +4115,11 @@
       <c r="D124" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F124" s="2" t="s">
         <v>82</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.2">
@@ -4128,11 +4131,11 @@
       <c r="D125" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E125" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F125" s="2" t="s">
         <v>82</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="126" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4144,14 +4147,14 @@
       <c r="D126" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="E126" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J126" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G126" s="27" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="127" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4163,14 +4166,14 @@
       <c r="D127" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="E127" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J127" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G127" s="27" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.3">
@@ -4182,14 +4185,14 @@
       <c r="D128" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="E128" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J128" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G128" s="27" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
@@ -4201,14 +4204,14 @@
       <c r="D129" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="E129" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J129" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G129" s="27" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
@@ -4220,14 +4223,14 @@
       <c r="D130" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E130" s="2" t="s">
+      <c r="E130" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J130" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G130" s="27" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.2">
@@ -4239,14 +4242,14 @@
       <c r="D131" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E131" s="2" t="s">
-        <v>113</v>
+      <c r="E131" s="25" t="s">
+        <v>203</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G131" s="25" t="s">
-        <v>203</v>
+      <c r="J131" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.2">
@@ -4258,14 +4261,14 @@
       <c r="D132" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E132" s="2" t="s">
-        <v>113</v>
+      <c r="E132" s="25" t="s">
+        <v>203</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G132" s="25" t="s">
-        <v>203</v>
+      <c r="J132" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
@@ -4277,14 +4280,14 @@
       <c r="D133" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>205</v>
+      <c r="E133" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G133" s="1" t="s">
-        <v>208</v>
+      <c r="J133" s="2" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
@@ -4296,14 +4299,14 @@
       <c r="D134" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E134" s="2" t="s">
-        <v>205</v>
+      <c r="E134" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G134" s="1" t="s">
-        <v>208</v>
+      <c r="J134" s="2" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
@@ -4315,14 +4318,14 @@
       <c r="D135" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E135" s="2" t="s">
-        <v>205</v>
+      <c r="E135" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G135" s="1" t="s">
-        <v>212</v>
+      <c r="J135" s="2" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
@@ -4334,14 +4337,14 @@
       <c r="D136" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E136" s="2" t="s">
-        <v>205</v>
+      <c r="E136" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G136" s="1" t="s">
-        <v>212</v>
+      <c r="J136" s="2" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
@@ -4353,14 +4356,14 @@
       <c r="D137" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E137" s="2" t="s">
-        <v>205</v>
+      <c r="E137" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G137" s="1" t="s">
-        <v>212</v>
+      <c r="J137" s="2" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
@@ -4372,11 +4375,11 @@
       <c r="D138" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E138" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="F138" s="2" t="s">
         <v>204</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
@@ -4388,11 +4391,11 @@
       <c r="D139" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E139" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="F139" s="2" t="s">
         <v>204</v>
+      </c>
+      <c r="J139" s="2" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
@@ -4404,11 +4407,11 @@
       <c r="D140" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E140" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="F140" s="2" t="s">
         <v>204</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
@@ -4420,14 +4423,14 @@
       <c r="D141" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E141" s="2" t="s">
-        <v>216</v>
+      <c r="E141" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G141" s="1" t="s">
-        <v>222</v>
+      <c r="J141" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="K141" s="2" t="s">
         <v>221</v>
@@ -4442,14 +4445,14 @@
       <c r="D142" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E142" s="2" t="s">
-        <v>216</v>
+      <c r="E142" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G142" s="1" t="s">
-        <v>222</v>
+      <c r="J142" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="K142" s="2" t="s">
         <v>221</v>
@@ -4464,14 +4467,14 @@
       <c r="D143" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E143" s="2" t="s">
-        <v>216</v>
+      <c r="E143" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G143" s="1" t="s">
-        <v>222</v>
+      <c r="J143" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="K143" s="2" t="s">
         <v>221</v>
@@ -4486,25 +4489,27 @@
       <c r="D144" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E144" s="2" t="s">
-        <v>216</v>
+      <c r="E144" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G144" s="1" t="s">
-        <v>222</v>
+      <c r="J144" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="K144" s="2" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" s="2"/>
+      <c r="A145" s="2" t="s">
+        <v>240</v>
+      </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
@@ -4585,76 +4590,20 @@
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="2"/>
-      <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="2"/>
-      <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="2"/>
-      <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="2"/>
-      <c r="B164" s="2"/>
-      <c r="C164" s="2"/>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="2"/>
-      <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="2"/>
-      <c r="B166" s="2"/>
-      <c r="C166" s="2"/>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="2"/>
-      <c r="B167" s="2"/>
-      <c r="C167" s="2"/>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="2"/>
-      <c r="B168" s="2"/>
-      <c r="C168" s="2"/>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="2"/>
-      <c r="B169" s="2"/>
-      <c r="C169" s="2"/>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" s="2"/>
-      <c r="B170" s="2"/>
-      <c r="C170" s="2"/>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" s="2"/>
-      <c r="B171" s="2"/>
-      <c r="C171" s="2"/>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" s="2"/>
-      <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" s="2"/>
-      <c r="B173" s="2"/>
-      <c r="C173" s="2"/>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" s="2"/>
-      <c r="B174" s="2"/>
-      <c r="C174" s="2"/>
-    </row>
+    <row r="161" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="162" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="163" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="164" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="165" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="166" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="167" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="168" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="169" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="170" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="171" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="172" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="173" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="174" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A4:T145" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="6">
